--- a/Fichier_excel/Reseau_10.xlsx
+++ b/Fichier_excel/Reseau_10.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeuds" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Lignes réseau initial" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Lignes réseau final" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t xml:space="preserve">Numero du nœud</t>
   </si>
@@ -73,6 +74,21 @@
   </si>
   <si>
     <t xml:space="preserve">Imax(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tension secondaire transformateur (pu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sbase (MVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubase (kV)</t>
   </si>
 </sst>
 </file>
@@ -162,21 +178,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -198,11 +218,11 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="18.71"/>
@@ -581,7 +601,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
@@ -871,7 +891,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
@@ -1148,4 +1168,60 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Fichier_excel/Reseau_10.xlsx
+++ b/Fichier_excel/Reseau_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeuds" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
-    <t xml:space="preserve">Numero du nœud</t>
+    <t xml:space="preserve">Numero du noeud</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -98,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,6 +120,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -178,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,6 +195,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,29 +242,29 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -526,7 +537,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -553,7 +564,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -609,28 +620,28 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -793,7 +804,7 @@
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -810,7 +821,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -853,7 +864,7 @@
       <c r="A13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -899,28 +910,28 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -1043,7 +1054,7 @@
       <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1060,7 +1071,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -1143,7 +1154,7 @@
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1177,41 +1188,41 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>20</v>
       </c>
     </row>
